--- a/report.xlsx
+++ b/report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="性能监控" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t xml:space="preserve">monkey性能监控_H60-L02 _Huawei </t>
   </si>
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t>28秒</t>
+    <t>36秒</t>
   </si>
   <si>
     <t>CPU最大峰值</t>
@@ -87,28 +87,31 @@
     <t>下行流量均值</t>
   </si>
   <si>
-    <t>53.0%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>153M</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>14KB</t>
-  </si>
-  <si>
-    <t>4KB</t>
-  </si>
-  <si>
-    <t>5KB</t>
+    <t>70.0%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>192M</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>242KB</t>
+  </si>
+  <si>
+    <t>45KB</t>
+  </si>
+  <si>
+    <t>26KB</t>
+  </si>
+  <si>
+    <t>10KB</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -192,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,7 +203,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -208,6 +210,1014 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>cpu使用率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>详细信息!$A$1:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="141641216"/>
+        <c:axId val="141642752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="141641216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141642752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141642752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141641216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>内存使用MB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>详细信息!$B$1:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="163417088"/>
+        <c:axId val="163443456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="163417088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163443456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="163443456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163417088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>电池剩余%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>详细信息!$D$1:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="165298560"/>
+        <c:axId val="165300096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="165298560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165300096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165300096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165298560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>fps使用情况</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>详细信息!$C$1:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="165328384"/>
+        <c:axId val="165329920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="165328384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165329920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="165329920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="165328384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>上行流量KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37427434116860847"/>
+          <c:y val="3.0769230769230771E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>详细信息!$E$1:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10650</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11038</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11055</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11245</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11245</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11249</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11264</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="166664832"/>
+        <c:axId val="166670720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166664832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166670720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166670720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166664832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>下行流量KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>详细信息!$F$1:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1734</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1760</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1809</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="166715392"/>
+        <c:axId val="166716928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166715392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166716928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166716928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166715392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,23 +1507,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="10.75" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="2" max="12" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5">
@@ -563,8 +1564,6 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -624,10 +1623,10 @@
         <v>27</v>
       </c>
       <c r="G4" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>28</v>
@@ -636,10 +1635,10 @@
         <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1"/>
@@ -663,9 +1662,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -674,276 +1673,337 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="B2" s="1">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1">
-        <v>9085</v>
+        <v>10650</v>
       </c>
       <c r="F2" s="1">
-        <v>1449</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="B3" s="1">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1">
-        <v>9097</v>
+        <v>10891</v>
       </c>
       <c r="F3" s="1">
-        <v>1462</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E4" s="1">
-        <v>9098</v>
+        <v>10891</v>
       </c>
       <c r="F4" s="1">
-        <v>1464</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1">
-        <v>9098</v>
+        <v>11015</v>
       </c>
       <c r="F5" s="1">
-        <v>1465</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1">
-        <v>9100</v>
+        <v>11015</v>
       </c>
       <c r="F6" s="1">
-        <v>1470</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="A7" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1">
-        <v>9114</v>
+        <v>11015</v>
       </c>
       <c r="F7" s="1">
-        <v>1483</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1">
         <v>60</v>
       </c>
       <c r="D8" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1">
-        <v>9114</v>
+        <v>11019</v>
       </c>
       <c r="F8" s="1">
-        <v>1484</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E9" s="1">
-        <v>9115</v>
+        <v>11038</v>
       </c>
       <c r="F9" s="1">
-        <v>1487</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1">
         <v>138</v>
       </c>
       <c r="C10" s="1">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E10" s="1">
-        <v>9119</v>
+        <v>11055</v>
       </c>
       <c r="F10" s="1">
-        <v>1491</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1">
-        <v>9119</v>
+        <v>11203</v>
       </c>
       <c r="F11" s="1">
-        <v>1494</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="C12" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1">
-        <v>9123</v>
+        <v>11245</v>
       </c>
       <c r="F12" s="1">
-        <v>1497</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="C13" s="1">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11245</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1">
+        <v>168</v>
+      </c>
+      <c r="C14" s="1">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11249</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1">
+        <v>156</v>
+      </c>
+      <c r="C15" s="1">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1">
+        <v>11264</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1">
+        <v>140</v>
+      </c>
+      <c r="C16" s="1">
         <v>60</v>
       </c>
-      <c r="D13" s="1">
-        <v>85</v>
-      </c>
-      <c r="E13" s="1">
-        <v>9124</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="D14" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" s="1">
-        <v>85</v>
+      <c r="D16" s="1">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1">
+        <v>11276</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/report.xlsx
+++ b/report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="性能监控" sheetId="1" r:id="rId1"/>
     <sheet name="详细信息" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -32,7 +32,7 @@
     <t>网络</t>
   </si>
   <si>
-    <t>wifi</t>
+    <t>gprs</t>
   </si>
   <si>
     <t>耗时</t>
@@ -48,7 +48,7 @@
 </t>
   </si>
   <si>
-    <t>36秒</t>
+    <t>119秒</t>
   </si>
   <si>
     <t>CPU最大峰值</t>
@@ -87,31 +87,31 @@
     <t>下行流量均值</t>
   </si>
   <si>
-    <t>70.0%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>192M</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>242KB</t>
-  </si>
-  <si>
-    <t>45KB</t>
-  </si>
-  <si>
-    <t>26KB</t>
-  </si>
-  <si>
-    <t>10KB</t>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>290M</t>
+  </si>
+  <si>
+    <t>92M</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>47KB</t>
+  </si>
+  <si>
+    <t>6KB</t>
+  </si>
+  <si>
+    <t>9KB</t>
+  </si>
+  <si>
+    <t>2KB</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -136,11 +136,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -148,15 +148,8 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -197,15 +190,15 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,7 +207,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -246,81 +239,111 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$A$1:$A$16</c:f>
+              <c:f>详细信息!$A$1:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="141641216"/>
-        <c:axId val="141642752"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="141641216"/>
+        <c:axId val="50010001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141642752"/>
+        <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141642752"/>
+        <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,7 +351,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141641216"/>
+        <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -341,7 +364,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -349,7 +372,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -381,81 +404,111 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$B$1:$B$16</c:f>
+              <c:f>详细信息!$B$1:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>147</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>142</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>138</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>159</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>166</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>192</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>168</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>156</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>140</c:v>
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="163417088"/>
-        <c:axId val="163443456"/>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163417088"/>
+        <c:axId val="50020001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163443456"/>
+        <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163443456"/>
+        <c:axId val="50020002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -463,7 +516,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163417088"/>
+        <c:crossAx val="50020001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -476,7 +529,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -484,7 +537,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -516,87 +569,117 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$D$1:$D$18</c:f>
+              <c:f>详细信息!$D$1:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>89</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90</c:v>
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="165298560"/>
-        <c:axId val="165300096"/>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165298560"/>
+        <c:axId val="50030001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165300096"/>
+        <c:crossAx val="50030002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165300096"/>
+        <c:axId val="50030002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +687,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165298560"/>
+        <c:crossAx val="50030001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -617,7 +700,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -625,7 +708,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -657,24 +740,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$C$1:$C$16</c:f>
+              <c:f>详细信息!$C$1:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>60</c:v>
@@ -686,27 +769,57 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -714,24 +827,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="165328384"/>
-        <c:axId val="165329920"/>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165328384"/>
+        <c:axId val="50040001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165329920"/>
+        <c:crossAx val="50040002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165329920"/>
+        <c:axId val="50040002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,7 +852,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165328384"/>
+        <c:crossAx val="50040001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -752,7 +865,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -760,7 +873,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -778,14 +891,7 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.37427434116860847"/>
-          <c:y val="3.0769230769230771E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -799,81 +905,111 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$E$1:$E$16</c:f>
+              <c:f>详细信息!$E$1:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10650</c:v>
+                  <c:v>149006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10891</c:v>
+                  <c:v>149053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10891</c:v>
+                  <c:v>149090</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11015</c:v>
+                  <c:v>149093</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11015</c:v>
+                  <c:v>149093</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11015</c:v>
+                  <c:v>149095</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11019</c:v>
+                  <c:v>149101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11038</c:v>
+                  <c:v>149102</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11055</c:v>
+                  <c:v>149102</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11203</c:v>
+                  <c:v>149103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11245</c:v>
+                  <c:v>149104</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11245</c:v>
+                  <c:v>149104</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11249</c:v>
+                  <c:v>149104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11264</c:v>
+                  <c:v>149105</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11276</c:v>
+                  <c:v>149105</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>149105</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>149105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>149133</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>149133</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>149145</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>149145</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>149145</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>149145</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>149150</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>149150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="166664832"/>
-        <c:axId val="166670720"/>
+        <c:axId val="50050001"/>
+        <c:axId val="50050002"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166664832"/>
+        <c:axId val="50050001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166670720"/>
+        <c:crossAx val="50050002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166670720"/>
+        <c:axId val="50050002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +1017,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166664832"/>
+        <c:crossAx val="50050001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -894,7 +1030,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -902,7 +1038,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -934,81 +1070,111 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$F$1:$F$16</c:f>
+              <c:f>详细信息!$F$1:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1734</c:v>
+                  <c:v>17937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1759</c:v>
+                  <c:v>17941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1760</c:v>
+                  <c:v>17942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1776</c:v>
+                  <c:v>17946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1776</c:v>
+                  <c:v>17946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1777</c:v>
+                  <c:v>17946</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1780</c:v>
+                  <c:v>17947</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1793</c:v>
+                  <c:v>17947</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1809</c:v>
+                  <c:v>17947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1826</c:v>
+                  <c:v>17948</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1835</c:v>
+                  <c:v>17948</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1835</c:v>
+                  <c:v>17948</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1843</c:v>
+                  <c:v>17950</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1855</c:v>
+                  <c:v>17950</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1867</c:v>
+                  <c:v>17951</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17951</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17951</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17959</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17961</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17967</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17967</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17967</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17967</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17969</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="166715392"/>
-        <c:axId val="166716928"/>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166715392"/>
+        <c:axId val="50060001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166716928"/>
+        <c:crossAx val="50060002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166716928"/>
+        <c:axId val="50060002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,7 +1182,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166715392"/>
+        <c:crossAx val="50060001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1029,7 +1195,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1041,14 +1207,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1069,16 +1235,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1099,16 +1265,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1129,16 +1295,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1159,16 +1325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1189,16 +1355,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1221,7 +1387,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1507,137 +1673,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="12" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="1">
-        <v>90</v>
-      </c>
-      <c r="H4" s="1">
-        <v>90</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="2">
+        <v>93</v>
+      </c>
+      <c r="H4" s="2">
+        <v>93</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1654,355 +1828,557 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>133</v>
-      </c>
-      <c r="C2" s="1">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1">
-        <v>89</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10650</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1734</v>
+      <c r="A2" s="2">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <v>262</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2">
+        <v>149006</v>
+      </c>
+      <c r="F2" s="2">
+        <v>17937</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
-      <c r="A3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>155</v>
-      </c>
-      <c r="C3" s="1">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1">
-        <v>89</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10891</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1759</v>
+      <c r="A3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>290</v>
+      </c>
+      <c r="C3" s="2">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2">
+        <v>92</v>
+      </c>
+      <c r="E3" s="2">
+        <v>149053</v>
+      </c>
+      <c r="F3" s="2">
+        <v>17941</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="1">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1">
-        <v>147</v>
-      </c>
-      <c r="C4" s="1">
-        <v>56</v>
-      </c>
-      <c r="D4" s="1">
-        <v>89</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10891</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1760</v>
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>266</v>
+      </c>
+      <c r="C4" s="2">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <v>92</v>
+      </c>
+      <c r="E4" s="2">
+        <v>149090</v>
+      </c>
+      <c r="F4" s="2">
+        <v>17942</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="1">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1">
-        <v>149</v>
-      </c>
-      <c r="C5" s="1">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1">
-        <v>90</v>
-      </c>
-      <c r="E5" s="1">
-        <v>11015</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1776</v>
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>267</v>
+      </c>
+      <c r="C5" s="2">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2">
+        <v>149093</v>
+      </c>
+      <c r="F5" s="2">
+        <v>17946</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="1">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1">
-        <v>147</v>
-      </c>
-      <c r="C6" s="1">
-        <v>60</v>
-      </c>
-      <c r="D6" s="1">
-        <v>90</v>
-      </c>
-      <c r="E6" s="1">
-        <v>11015</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1776</v>
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>268</v>
+      </c>
+      <c r="C6" s="2">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2">
+        <v>92</v>
+      </c>
+      <c r="E6" s="2">
+        <v>149093</v>
+      </c>
+      <c r="F6" s="2">
+        <v>17946</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="1">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1">
-        <v>147</v>
-      </c>
-      <c r="C7" s="1">
-        <v>60</v>
-      </c>
-      <c r="D7" s="1">
-        <v>90</v>
-      </c>
-      <c r="E7" s="1">
-        <v>11015</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1777</v>
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>271</v>
+      </c>
+      <c r="C7" s="2">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2">
+        <v>92</v>
+      </c>
+      <c r="E7" s="2">
+        <v>149095</v>
+      </c>
+      <c r="F7" s="2">
+        <v>17946</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1">
-        <v>142</v>
-      </c>
-      <c r="C8" s="1">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1">
-        <v>90</v>
-      </c>
-      <c r="E8" s="1">
-        <v>11019</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1780</v>
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <v>266</v>
+      </c>
+      <c r="C8" s="2">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2">
+        <v>92</v>
+      </c>
+      <c r="E8" s="2">
+        <v>149101</v>
+      </c>
+      <c r="F8" s="2">
+        <v>17947</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1">
-        <v>137</v>
-      </c>
-      <c r="C9" s="1">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1">
-        <v>90</v>
-      </c>
-      <c r="E9" s="1">
-        <v>11038</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1793</v>
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>271</v>
+      </c>
+      <c r="C9" s="2">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2">
+        <v>92</v>
+      </c>
+      <c r="E9" s="2">
+        <v>149102</v>
+      </c>
+      <c r="F9" s="2">
+        <v>17947</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1">
-        <v>138</v>
-      </c>
-      <c r="C10" s="1">
-        <v>53</v>
-      </c>
-      <c r="D10" s="1">
-        <v>90</v>
-      </c>
-      <c r="E10" s="1">
-        <v>11055</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1809</v>
+      <c r="A10" s="2">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>271</v>
+      </c>
+      <c r="C10" s="2">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2">
+        <v>92</v>
+      </c>
+      <c r="E10" s="2">
+        <v>149102</v>
+      </c>
+      <c r="F10" s="2">
+        <v>17947</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1">
-        <v>159</v>
-      </c>
-      <c r="C11" s="1">
-        <v>56</v>
-      </c>
-      <c r="D11" s="1">
-        <v>90</v>
-      </c>
-      <c r="E11" s="1">
-        <v>11203</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1826</v>
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>252</v>
+      </c>
+      <c r="C11" s="2">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2">
+        <v>92</v>
+      </c>
+      <c r="E11" s="2">
+        <v>149103</v>
+      </c>
+      <c r="F11" s="2">
+        <v>17948</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>70</v>
-      </c>
-      <c r="B12" s="1">
-        <v>166</v>
-      </c>
-      <c r="C12" s="1">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1">
-        <v>90</v>
-      </c>
-      <c r="E12" s="1">
-        <v>11245</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1835</v>
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>248</v>
+      </c>
+      <c r="C12" s="2">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2">
+        <v>92</v>
+      </c>
+      <c r="E12" s="2">
+        <v>149104</v>
+      </c>
+      <c r="F12" s="2">
+        <v>17948</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>70</v>
-      </c>
-      <c r="B13" s="1">
-        <v>192</v>
-      </c>
-      <c r="C13" s="1">
-        <v>52</v>
-      </c>
-      <c r="D13" s="1">
-        <v>90</v>
-      </c>
-      <c r="E13" s="1">
-        <v>11245</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1835</v>
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>265</v>
+      </c>
+      <c r="C13" s="2">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2">
+        <v>92</v>
+      </c>
+      <c r="E13" s="2">
+        <v>149104</v>
+      </c>
+      <c r="F13" s="2">
+        <v>17948</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>61</v>
-      </c>
-      <c r="B14" s="1">
-        <v>168</v>
-      </c>
-      <c r="C14" s="1">
-        <v>50</v>
-      </c>
-      <c r="D14" s="1">
-        <v>90</v>
-      </c>
-      <c r="E14" s="1">
-        <v>11249</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1843</v>
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>262</v>
+      </c>
+      <c r="C14" s="2">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2">
+        <v>92</v>
+      </c>
+      <c r="E14" s="2">
+        <v>149104</v>
+      </c>
+      <c r="F14" s="2">
+        <v>17950</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1">
-        <v>156</v>
-      </c>
-      <c r="C15" s="1">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1">
-        <v>90</v>
-      </c>
-      <c r="E15" s="1">
-        <v>11264</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1855</v>
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>260</v>
+      </c>
+      <c r="C15" s="2">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2">
+        <v>149105</v>
+      </c>
+      <c r="F15" s="2">
+        <v>17950</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>61</v>
-      </c>
-      <c r="B16" s="1">
-        <v>140</v>
-      </c>
-      <c r="C16" s="1">
-        <v>60</v>
-      </c>
-      <c r="D16" s="1">
-        <v>90</v>
-      </c>
-      <c r="E16" s="1">
-        <v>11276</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="1">
-        <v>90</v>
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>264</v>
+      </c>
+      <c r="C16" s="2">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2">
+        <v>92</v>
+      </c>
+      <c r="E16" s="2">
+        <v>149105</v>
+      </c>
+      <c r="F16" s="2">
+        <v>17951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>259</v>
+      </c>
+      <c r="C17" s="2">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2">
+        <v>92</v>
+      </c>
+      <c r="E17" s="2">
+        <v>149105</v>
+      </c>
+      <c r="F17" s="2">
+        <v>17951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <v>252</v>
+      </c>
+      <c r="C18" s="2">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2">
+        <v>93</v>
+      </c>
+      <c r="E18" s="2">
+        <v>149105</v>
+      </c>
+      <c r="F18" s="2">
+        <v>17951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>251</v>
+      </c>
+      <c r="C19" s="2">
+        <v>60</v>
+      </c>
+      <c r="D19" s="2">
+        <v>93</v>
+      </c>
+      <c r="E19" s="2">
+        <v>149133</v>
+      </c>
+      <c r="F19" s="2">
+        <v>17959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <v>268</v>
+      </c>
+      <c r="C20" s="2">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2">
+        <v>93</v>
+      </c>
+      <c r="E20" s="2">
+        <v>149133</v>
+      </c>
+      <c r="F20" s="2">
+        <v>17961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>282</v>
+      </c>
+      <c r="C21" s="2">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2">
+        <v>93</v>
+      </c>
+      <c r="E21" s="2">
+        <v>149145</v>
+      </c>
+      <c r="F21" s="2">
+        <v>17967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2">
+        <v>279</v>
+      </c>
+      <c r="C22" s="2">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2">
+        <v>93</v>
+      </c>
+      <c r="E22" s="2">
+        <v>149145</v>
+      </c>
+      <c r="F22" s="2">
+        <v>17967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>280</v>
+      </c>
+      <c r="C23" s="2">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2">
+        <v>93</v>
+      </c>
+      <c r="E23" s="2">
+        <v>149145</v>
+      </c>
+      <c r="F23" s="2">
+        <v>17967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>280</v>
+      </c>
+      <c r="C24" s="2">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2">
+        <v>149145</v>
+      </c>
+      <c r="F24" s="2">
+        <v>17967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2">
+        <v>281</v>
+      </c>
+      <c r="C25" s="2">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2">
+        <v>149150</v>
+      </c>
+      <c r="F25" s="2">
+        <v>17969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2">
+        <v>281</v>
+      </c>
+      <c r="C26" s="2">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2">
+        <v>93</v>
+      </c>
+      <c r="E26" s="2">
+        <v>149150</v>
+      </c>
+      <c r="F26" s="2">
+        <v>17969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="D27" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="D28" s="2">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/report.xlsx
+++ b/report.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="性能监控" sheetId="1" r:id="rId1"/>
-    <sheet name="详细信息" sheetId="2" r:id="rId2"/>
+    <sheet name="Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="emulator-5554detail" sheetId="2" r:id="rId2"/>
+    <sheet name="DU2TAN15AJ049163detail" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
-    <t xml:space="preserve">monkey性能监控_H60-L02 _Huawei </t>
+    <t>monkey性能监控</t>
+  </si>
+  <si>
+    <t>设备名</t>
   </si>
   <si>
     <t>CPU</t>
@@ -32,35 +36,19 @@
     <t>网络</t>
   </si>
   <si>
-    <t>gprs</t>
-  </si>
-  <si>
     <t>耗时</t>
   </si>
   <si>
-    <t>8核</t>
-  </si>
-  <si>
-    <t>3014M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1080x1920
-</t>
-  </si>
-  <si>
-    <t>119秒</t>
-  </si>
-  <si>
-    <t>CPU最大峰值</t>
+    <t>CPU峰值</t>
   </si>
   <si>
     <t>CPU均值</t>
   </si>
   <si>
-    <t>内存使用峰值</t>
+    <t>内存峰值</t>
   </si>
   <si>
-    <t>内存使用均值</t>
+    <t>内存均值</t>
   </si>
   <si>
     <t>fps峰值</t>
@@ -87,31 +75,82 @@
     <t>下行流量均值</t>
   </si>
   <si>
-    <t>32%</t>
+    <t>GT-I9500_samsung_4.4</t>
   </si>
   <si>
-    <t>6%</t>
+    <t>2核</t>
   </si>
   <si>
-    <t>290M</t>
+    <t>753M</t>
   </si>
   <si>
-    <t>92M</t>
+    <t>1440x810</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>224秒</t>
+  </si>
+  <si>
+    <t>98%</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>187M</t>
+  </si>
+  <si>
+    <t>218M</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>47KB</t>
+    <t>0KB</t>
   </si>
   <si>
-    <t>6KB</t>
+    <t>H60-L02_Huawei_4.4</t>
+  </si>
+  <si>
+    <t>8核</t>
+  </si>
+  <si>
+    <t>3014M</t>
+  </si>
+  <si>
+    <t>1080x1920</t>
+  </si>
+  <si>
+    <t>239秒</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>322M</t>
+  </si>
+  <si>
+    <t>80M</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>1026KB</t>
+  </si>
+  <si>
+    <t>62KB</t>
   </si>
   <si>
     <t>9KB</t>
-  </si>
-  <si>
-    <t>2KB</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -136,11 +175,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -148,8 +187,15 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,15 +236,15 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -207,7 +253,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -239,27 +285,27 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$A$1:$A$26</c:f>
+              <c:f>emulator-5554detail!$A$1:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -268,82 +314,208 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8</c:v>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
+        <c:axId val="59978496"/>
+        <c:axId val="59980032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50010001"/>
+        <c:axId val="59978496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
+        <c:crossAx val="59980032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50010002"/>
+        <c:axId val="59980032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -351,7 +523,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
+        <c:crossAx val="59978496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -364,7 +536,826 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>fps使用情况</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DU2TAN15AJ049163detail!$C$1:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="60747776"/>
+        <c:axId val="60749312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60747776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60749312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60749312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60747776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>上行流量KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DU2TAN15AJ049163detail!$E$1:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>244153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>244154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>244183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244186</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>244213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244241</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>244242</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>244273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>244275</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>244277</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>244440</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>244474</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>244474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>244480</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>244480</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>244485</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>244485</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>244485</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>244523</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>245159</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>245164</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>245165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>246180</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>246248</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>246249</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>246251</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>246254</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>246254</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>246260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>246261</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>246262</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>246262</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>246264</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>246265</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>246266</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>246267</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>246268</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>246268</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>246270</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>246273</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>246273</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>246275</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>246276</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>247301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>248189</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>248191</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>248192</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>248192</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>248217</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>248229</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>248231</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>248239</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>248241</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>248244</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>248456</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>248457</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>248458</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>248524</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>248578</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>248579</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>248580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="60785792"/>
+        <c:axId val="60787328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60785792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60787328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60787328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60785792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>下行流量KB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DU2TAN15AJ049163detail!$F$1:$F$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36813</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36814</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36829</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36832</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36888</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36896</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36898</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36900</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36909</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36911</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36911</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36921</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36960</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36965</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36967</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37033</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37033</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37037</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37040</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37045</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37046</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37047</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37050</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37053</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37055</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37055</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37056</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37063</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37066</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37067</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37072</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37072</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>37134</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37184</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37189</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37194</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37195</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37204</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37210</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37214</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37221</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37234</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>37259</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>37263</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>37267</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>37279</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>37285</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>37289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="60815616"/>
+        <c:axId val="60817408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60815616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60817408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60817408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60815616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -372,7 +1363,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -404,111 +1395,237 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$B$1:$B$26</c:f>
+              <c:f>emulator-5554detail!$B$1:$B$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>262</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>290</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>266</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>267</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>268</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>271</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>266</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>271</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>271</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>252</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>248</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>265</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>262</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>260</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>264</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>259</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>252</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>251</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>268</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>282</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>279</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>280</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>280</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>281</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>281</c:v>
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50020001"/>
-        <c:axId val="50020002"/>
+        <c:axId val="60012800"/>
+        <c:axId val="60018688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50020001"/>
+        <c:axId val="60012800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020002"/>
+        <c:crossAx val="60018688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50020002"/>
+        <c:axId val="60018688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,7 +1633,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50020001"/>
+        <c:crossAx val="60012800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -529,7 +1646,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -537,7 +1654,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -569,117 +1686,243 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$D$1:$D$28</c:f>
+              <c:f>emulator-5554detail!$D$1:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>92</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50030001"/>
-        <c:axId val="50030002"/>
+        <c:axId val="59919744"/>
+        <c:axId val="59929728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50030001"/>
+        <c:axId val="59919744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50030002"/>
+        <c:crossAx val="59929728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50030002"/>
+        <c:axId val="59929728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -687,7 +1930,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50030001"/>
+        <c:crossAx val="59919744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -700,7 +1943,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -708,7 +1951,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -740,10 +1983,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$C$1:$C$26</c:f>
+              <c:f>emulator-5554detail!$C$1:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -820,6 +2063,132 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -827,24 +2196,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50040001"/>
-        <c:axId val="50040002"/>
+        <c:axId val="59941632"/>
+        <c:axId val="59943168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50040001"/>
+        <c:axId val="59941632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50040002"/>
+        <c:crossAx val="59943168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50040002"/>
+        <c:axId val="59943168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +2221,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50040001"/>
+        <c:crossAx val="59941632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -865,7 +2234,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -873,7 +2242,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -905,111 +2274,237 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$E$1:$E$26</c:f>
+              <c:f>emulator-5554detail!$E$1:$E$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149053</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149090</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149093</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149093</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149095</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>149101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>149102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>149102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>149103</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>149104</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>149104</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>149104</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>149105</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>149105</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>149105</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>149105</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>149133</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>149133</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>149145</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>149145</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>149145</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>149145</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>149150</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>149150</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50050001"/>
-        <c:axId val="50050002"/>
+        <c:axId val="60573568"/>
+        <c:axId val="60575104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50050001"/>
+        <c:axId val="60573568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50050002"/>
+        <c:crossAx val="60575104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50050002"/>
+        <c:axId val="60575104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +2512,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50050001"/>
+        <c:crossAx val="60573568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1030,7 +2525,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1038,7 +2533,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1070,111 +2565,237 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>详细信息!$F$1:$F$26</c:f>
+              <c:f>emulator-5554detail!$F$1:$F$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17937</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17941</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17942</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17946</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17946</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17946</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17947</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17947</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17947</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17948</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17948</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17948</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17950</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17951</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17951</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17951</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17959</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17961</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17967</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17967</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17967</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17967</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17969</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17969</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50060001"/>
-        <c:axId val="50060002"/>
+        <c:axId val="60595200"/>
+        <c:axId val="60613376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50060001"/>
+        <c:axId val="60595200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50060002"/>
+        <c:crossAx val="60613376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50060002"/>
+        <c:axId val="60613376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +2803,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50060001"/>
+        <c:crossAx val="60595200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1195,7 +2816,832 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>cpu使用率</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DU2TAN15AJ049163detail!$A$1:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="60658432"/>
+        <c:axId val="60659968"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60658432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60659968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60659968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60658432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>内存使用MB</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DU2TAN15AJ049163detail!$B$1:$B$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="60687872"/>
+        <c:axId val="60689408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60687872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60689408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60689408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60687872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>电池剩余%</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>DU2TAN15AJ049163detail!$D$1:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="60701312"/>
+        <c:axId val="60711296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60701312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60711296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60711296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60701312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1207,13 +3653,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1237,13 +3683,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1267,13 +3713,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1297,13 +3743,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1327,13 +3773,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1357,13 +3803,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1386,8 +3832,193 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1671,714 +4302,2872 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="18" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:18" ht="22.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2">
-        <v>93</v>
-      </c>
-      <c r="H4" s="2">
-        <v>93</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M3" s="1">
+        <v>99</v>
+      </c>
+      <c r="N3" s="1">
+        <v>99</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1"/>
-    <row r="6" spans="1:12" ht="30" customHeight="1"/>
-    <row r="7" spans="1:12" ht="30" customHeight="1"/>
-    <row r="8" spans="1:12" ht="30" customHeight="1"/>
-    <row r="9" spans="1:12" ht="30" customHeight="1"/>
-    <row r="10" spans="1:12" ht="30" customHeight="1"/>
-    <row r="11" spans="1:12" ht="30" customHeight="1"/>
-    <row r="12" spans="1:12" ht="30" customHeight="1"/>
-    <row r="13" spans="1:12" ht="30" customHeight="1"/>
+      <c r="P3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="1">
+        <v>85</v>
+      </c>
+      <c r="N4" s="1">
+        <v>85</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30" customHeight="1"/>
+    <row r="6" spans="1:18" ht="30" customHeight="1"/>
+    <row r="7" spans="1:18" ht="30" customHeight="1"/>
+    <row r="8" spans="1:18" ht="30" customHeight="1"/>
+    <row r="9" spans="1:18" ht="30" customHeight="1"/>
+    <row r="10" spans="1:18" ht="30" customHeight="1"/>
+    <row r="11" spans="1:18" ht="30" customHeight="1"/>
+    <row r="12" spans="1:18" ht="30" customHeight="1"/>
+    <row r="13" spans="1:18" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="6" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1">
+        <v>99</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>139</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>139</v>
+      </c>
+      <c r="C4" s="1">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="A5" s="1">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1">
+      <c r="A6" s="1">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>142</v>
+      </c>
+      <c r="C7" s="1">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>142</v>
+      </c>
+      <c r="C8" s="1">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1">
+        <v>142</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>142</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>142</v>
+      </c>
+      <c r="C11" s="1">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1">
+        <v>99</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>142</v>
+      </c>
+      <c r="C12" s="1">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>99</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>142</v>
+      </c>
+      <c r="C13" s="1">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <v>99</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>142</v>
+      </c>
+      <c r="C14" s="1">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>99</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>142</v>
+      </c>
+      <c r="C15" s="1">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
+        <v>99</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>142</v>
+      </c>
+      <c r="C16" s="1">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1">
+        <v>99</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>142</v>
+      </c>
+      <c r="C17" s="1">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1">
+        <v>99</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1">
+        <v>133</v>
+      </c>
+      <c r="C18" s="1">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>99</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>87</v>
+      </c>
+      <c r="B19" s="1">
+        <v>149</v>
+      </c>
+      <c r="C19" s="1">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1">
+        <v>99</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1">
+        <v>142</v>
+      </c>
+      <c r="C20" s="1">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1">
+        <v>99</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>150</v>
+      </c>
+      <c r="C21" s="1">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1">
+        <v>99</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>134</v>
+      </c>
+      <c r="C22" s="1">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>143</v>
+      </c>
+      <c r="C23" s="1">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>154</v>
+      </c>
+      <c r="C24" s="1">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1">
+        <v>99</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B25" s="1">
+        <v>166</v>
+      </c>
+      <c r="C25" s="1">
+        <v>60</v>
+      </c>
+      <c r="D25" s="1">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>164</v>
+      </c>
+      <c r="C26" s="1">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1">
+        <v>99</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>164</v>
+      </c>
+      <c r="C27" s="1">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1">
+        <v>99</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1">
+        <v>164</v>
+      </c>
+      <c r="C28" s="1">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1">
+        <v>99</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>10</v>
+      </c>
+      <c r="B29" s="1">
+        <v>164</v>
+      </c>
+      <c r="C29" s="1">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1">
+        <v>99</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>164</v>
+      </c>
+      <c r="C30" s="1">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1">
+        <v>99</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>164</v>
+      </c>
+      <c r="C31" s="1">
+        <v>60</v>
+      </c>
+      <c r="D31" s="1">
+        <v>99</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1">
+        <v>165</v>
+      </c>
+      <c r="C32" s="1">
+        <v>60</v>
+      </c>
+      <c r="D32" s="1">
+        <v>99</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1">
+        <v>165</v>
+      </c>
+      <c r="C33" s="1">
+        <v>60</v>
+      </c>
+      <c r="D33" s="1">
+        <v>99</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>165</v>
+      </c>
+      <c r="C34" s="1">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1">
+        <v>99</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>166</v>
+      </c>
+      <c r="C35" s="1">
+        <v>60</v>
+      </c>
+      <c r="D35" s="1">
+        <v>99</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>98</v>
+      </c>
+      <c r="B36" s="1">
+        <v>167</v>
+      </c>
+      <c r="C36" s="1">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1">
+        <v>99</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>167</v>
+      </c>
+      <c r="C37" s="1">
+        <v>60</v>
+      </c>
+      <c r="D37" s="1">
+        <v>99</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1">
+        <v>164</v>
+      </c>
+      <c r="C38" s="1">
+        <v>60</v>
+      </c>
+      <c r="D38" s="1">
+        <v>99</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>164</v>
+      </c>
+      <c r="C39" s="1">
+        <v>60</v>
+      </c>
+      <c r="D39" s="1">
+        <v>99</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1">
+        <v>164</v>
+      </c>
+      <c r="C40" s="1">
+        <v>60</v>
+      </c>
+      <c r="D40" s="1">
+        <v>99</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1">
+        <v>164</v>
+      </c>
+      <c r="C41" s="1">
+        <v>60</v>
+      </c>
+      <c r="D41" s="1">
+        <v>99</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>165</v>
+      </c>
+      <c r="C42" s="1">
+        <v>60</v>
+      </c>
+      <c r="D42" s="1">
+        <v>99</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>165</v>
+      </c>
+      <c r="C43" s="1">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1">
+        <v>99</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
+        <v>165</v>
+      </c>
+      <c r="C44" s="1">
+        <v>60</v>
+      </c>
+      <c r="D44" s="1">
+        <v>99</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1">
+        <v>165</v>
+      </c>
+      <c r="C45" s="1">
+        <v>60</v>
+      </c>
+      <c r="D45" s="1">
+        <v>99</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>165</v>
+      </c>
+      <c r="C46" s="1">
+        <v>60</v>
+      </c>
+      <c r="D46" s="1">
+        <v>99</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1">
+        <v>165</v>
+      </c>
+      <c r="C47" s="1">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1">
+        <v>99</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>74</v>
+      </c>
+      <c r="B48" s="1">
+        <v>167</v>
+      </c>
+      <c r="C48" s="1">
+        <v>60</v>
+      </c>
+      <c r="D48" s="1">
+        <v>99</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1">
+        <v>187</v>
+      </c>
+      <c r="C49" s="1">
+        <v>60</v>
+      </c>
+      <c r="D49" s="1">
+        <v>99</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>23</v>
+      </c>
+      <c r="B50" s="1">
+        <v>168</v>
+      </c>
+      <c r="C50" s="1">
+        <v>60</v>
+      </c>
+      <c r="D50" s="1">
+        <v>99</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>168</v>
+      </c>
+      <c r="C51" s="1">
+        <v>60</v>
+      </c>
+      <c r="D51" s="1">
+        <v>99</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
+        <v>168</v>
+      </c>
+      <c r="C52" s="1">
+        <v>60</v>
+      </c>
+      <c r="D52" s="1">
+        <v>99</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>10</v>
+      </c>
+      <c r="B53" s="1">
+        <v>168</v>
+      </c>
+      <c r="C53" s="1">
+        <v>60</v>
+      </c>
+      <c r="D53" s="1">
+        <v>99</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1">
+        <v>169</v>
+      </c>
+      <c r="C54" s="1">
+        <v>60</v>
+      </c>
+      <c r="D54" s="1">
+        <v>99</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>25</v>
+      </c>
+      <c r="B55" s="1">
+        <v>170</v>
+      </c>
+      <c r="C55" s="1">
+        <v>60</v>
+      </c>
+      <c r="D55" s="1">
+        <v>99</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
+        <v>170</v>
+      </c>
+      <c r="C56" s="1">
+        <v>60</v>
+      </c>
+      <c r="D56" s="1">
+        <v>99</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>170</v>
+      </c>
+      <c r="C57" s="1">
+        <v>60</v>
+      </c>
+      <c r="D57" s="1">
+        <v>99</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1">
+        <v>170</v>
+      </c>
+      <c r="C58" s="1">
+        <v>60</v>
+      </c>
+      <c r="D58" s="1">
+        <v>99</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1">
+        <v>170</v>
+      </c>
+      <c r="C59" s="1">
+        <v>60</v>
+      </c>
+      <c r="D59" s="1">
+        <v>99</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1">
+        <v>170</v>
+      </c>
+      <c r="C60" s="1">
+        <v>60</v>
+      </c>
+      <c r="D60" s="1">
+        <v>99</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1">
+        <v>170</v>
+      </c>
+      <c r="C61" s="1">
+        <v>60</v>
+      </c>
+      <c r="D61" s="1">
+        <v>99</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>17</v>
+      </c>
+      <c r="B62" s="1">
+        <v>170</v>
+      </c>
+      <c r="C62" s="1">
+        <v>60</v>
+      </c>
+      <c r="D62" s="1">
+        <v>99</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1">
+        <v>170</v>
+      </c>
+      <c r="C63" s="1">
+        <v>60</v>
+      </c>
+      <c r="D63" s="1">
+        <v>99</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1">
+        <v>170</v>
+      </c>
+      <c r="C64" s="1">
+        <v>60</v>
+      </c>
+      <c r="D64" s="1">
+        <v>99</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>187</v>
+      </c>
+      <c r="C65" s="1">
+        <v>60</v>
+      </c>
+      <c r="D65" s="1">
+        <v>99</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1">
+        <v>186</v>
+      </c>
+      <c r="C66" s="1">
+        <v>60</v>
+      </c>
+      <c r="D66" s="1">
+        <v>99</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1">
+        <v>183</v>
+      </c>
+      <c r="C67" s="1">
+        <v>60</v>
+      </c>
+      <c r="D67" s="1">
+        <v>99</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1">
+        <v>183</v>
+      </c>
+      <c r="C68" s="1">
+        <v>60</v>
+      </c>
+      <c r="D68" s="1">
+        <v>99</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="D69" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="D70" s="1">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="6" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1">
+        <v>85</v>
+      </c>
+      <c r="E2" s="1">
+        <v>244153</v>
+      </c>
+      <c r="F2" s="1">
+        <v>36802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1">
+        <v>85</v>
+      </c>
+      <c r="E3" s="1">
+        <v>244154</v>
+      </c>
+      <c r="F3" s="1">
+        <v>36804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1">
+        <v>85</v>
+      </c>
+      <c r="E4" s="1">
+        <v>244183</v>
+      </c>
+      <c r="F4" s="1">
+        <v>36813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>151</v>
+      </c>
+      <c r="C5" s="1">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1">
+        <v>85</v>
+      </c>
+      <c r="E5" s="1">
+        <v>244186</v>
+      </c>
+      <c r="F5" s="1">
+        <v>36814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>154</v>
+      </c>
+      <c r="C6" s="1">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1">
+        <v>244213</v>
+      </c>
+      <c r="F6" s="1">
+        <v>36821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="A7" s="1">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>156</v>
+      </c>
+      <c r="C7" s="1">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1">
+        <v>85</v>
+      </c>
+      <c r="E7" s="1">
+        <v>244241</v>
+      </c>
+      <c r="F7" s="1">
+        <v>36829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>111</v>
+      </c>
+      <c r="C8" s="1">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1">
+        <v>85</v>
+      </c>
+      <c r="E8" s="1">
+        <v>244242</v>
+      </c>
+      <c r="F8" s="1">
+        <v>36832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>152</v>
+      </c>
+      <c r="C9" s="1">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1">
+        <v>244273</v>
+      </c>
+      <c r="F9" s="1">
+        <v>36854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1">
+        <v>244275</v>
+      </c>
+      <c r="F10" s="1">
+        <v>36858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1">
+        <v>85</v>
+      </c>
+      <c r="E11" s="1">
+        <v>244277</v>
+      </c>
+      <c r="F11" s="1">
+        <v>36862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1">
+        <v>244440</v>
+      </c>
+      <c r="F12" s="1">
+        <v>36888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>173</v>
+      </c>
+      <c r="C13" s="1">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1">
+        <v>244474</v>
+      </c>
+      <c r="F13" s="1">
+        <v>36896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>174</v>
+      </c>
+      <c r="C14" s="1">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1">
+        <v>85</v>
+      </c>
+      <c r="E14" s="1">
+        <v>244474</v>
+      </c>
+      <c r="F14" s="1">
+        <v>36898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>174</v>
+      </c>
+      <c r="C15" s="1">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1">
+        <v>85</v>
+      </c>
+      <c r="E15" s="1">
+        <v>244480</v>
+      </c>
+      <c r="F15" s="1">
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>174</v>
+      </c>
+      <c r="C16" s="1">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1">
+        <v>244480</v>
+      </c>
+      <c r="F16" s="1">
+        <v>36901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>174</v>
+      </c>
+      <c r="C17" s="1">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1">
+        <v>85</v>
+      </c>
+      <c r="E17" s="1">
+        <v>244485</v>
+      </c>
+      <c r="F17" s="1">
+        <v>36909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>177</v>
+      </c>
+      <c r="C18" s="1">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1">
+        <v>244485</v>
+      </c>
+      <c r="F18" s="1">
+        <v>36911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>172</v>
+      </c>
+      <c r="C19" s="1">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1">
+        <v>85</v>
+      </c>
+      <c r="E19" s="1">
+        <v>244485</v>
+      </c>
+      <c r="F19" s="1">
+        <v>36911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>188</v>
+      </c>
+      <c r="C20" s="1">
+        <v>58</v>
+      </c>
+      <c r="D20" s="1">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1">
+        <v>244523</v>
+      </c>
+      <c r="F20" s="1">
+        <v>36921</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>190</v>
+      </c>
+      <c r="C21" s="1">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1">
+        <v>245159</v>
+      </c>
+      <c r="F21" s="1">
+        <v>36960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>188</v>
+      </c>
+      <c r="C22" s="1">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1">
+        <v>245164</v>
+      </c>
+      <c r="F22" s="1">
+        <v>36965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>184</v>
+      </c>
+      <c r="C23" s="1">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1">
+        <v>245165</v>
+      </c>
+      <c r="F23" s="1">
+        <v>36967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>246</v>
+      </c>
+      <c r="C24" s="1">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1">
+        <v>85</v>
+      </c>
+      <c r="E24" s="1">
+        <v>246180</v>
+      </c>
+      <c r="F24" s="1">
+        <v>37014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>248</v>
+      </c>
+      <c r="C25" s="1">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1">
+        <v>85</v>
+      </c>
+      <c r="E25" s="1">
+        <v>246248</v>
+      </c>
+      <c r="F25" s="1">
+        <v>37016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>239</v>
+      </c>
+      <c r="C26" s="1">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1">
+        <v>85</v>
+      </c>
+      <c r="E26" s="1">
+        <v>246249</v>
+      </c>
+      <c r="F26" s="1">
+        <v>37020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>247</v>
+      </c>
+      <c r="C27" s="1">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1">
+        <v>85</v>
+      </c>
+      <c r="E27" s="1">
+        <v>246251</v>
+      </c>
+      <c r="F27" s="1">
+        <v>37024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>239</v>
+      </c>
+      <c r="C28" s="1">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1">
+        <v>85</v>
+      </c>
+      <c r="E28" s="1">
+        <v>246254</v>
+      </c>
+      <c r="F28" s="1">
+        <v>37033</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>248</v>
+      </c>
+      <c r="C29" s="1">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1">
+        <v>85</v>
+      </c>
+      <c r="E29" s="1">
+        <v>246254</v>
+      </c>
+      <c r="F29" s="1">
+        <v>37033</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>248</v>
+      </c>
+      <c r="C30" s="1">
+        <v>60</v>
+      </c>
+      <c r="D30" s="1">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1">
+        <v>246260</v>
+      </c>
+      <c r="F30" s="1">
+        <v>37037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
+        <v>246</v>
+      </c>
+      <c r="C31" s="1">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1">
+        <v>85</v>
+      </c>
+      <c r="E31" s="1">
+        <v>246261</v>
+      </c>
+      <c r="F31" s="1">
+        <v>37040</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1">
+        <v>280</v>
+      </c>
+      <c r="C32" s="1">
+        <v>53</v>
+      </c>
+      <c r="D32" s="1">
+        <v>85</v>
+      </c>
+      <c r="E32" s="1">
+        <v>246262</v>
+      </c>
+      <c r="F32" s="1">
+        <v>37045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>273</v>
+      </c>
+      <c r="C33" s="1">
+        <v>59</v>
+      </c>
+      <c r="D33" s="1">
+        <v>85</v>
+      </c>
+      <c r="E33" s="1">
+        <v>246262</v>
+      </c>
+      <c r="F33" s="1">
+        <v>37046</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>275</v>
+      </c>
+      <c r="C34" s="1">
+        <v>58</v>
+      </c>
+      <c r="D34" s="1">
+        <v>85</v>
+      </c>
+      <c r="E34" s="1">
+        <v>246264</v>
+      </c>
+      <c r="F34" s="1">
+        <v>37047</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>282</v>
+      </c>
+      <c r="C35" s="1">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1">
+        <v>85</v>
+      </c>
+      <c r="E35" s="1">
+        <v>246265</v>
+      </c>
+      <c r="F35" s="1">
+        <v>37050</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>275</v>
+      </c>
+      <c r="C36" s="1">
+        <v>50</v>
+      </c>
+      <c r="D36" s="1">
+        <v>85</v>
+      </c>
+      <c r="E36" s="1">
+        <v>246266</v>
+      </c>
+      <c r="F36" s="1">
+        <v>37053</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>282</v>
+      </c>
+      <c r="C37" s="1">
+        <v>58</v>
+      </c>
+      <c r="D37" s="1">
+        <v>85</v>
+      </c>
+      <c r="E37" s="1">
+        <v>246267</v>
+      </c>
+      <c r="F37" s="1">
+        <v>37055</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>282</v>
+      </c>
+      <c r="C38" s="1">
+        <v>60</v>
+      </c>
+      <c r="D38" s="1">
+        <v>85</v>
+      </c>
+      <c r="E38" s="1">
+        <v>246268</v>
+      </c>
+      <c r="F38" s="1">
+        <v>37055</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>282</v>
+      </c>
+      <c r="C39" s="1">
+        <v>60</v>
+      </c>
+      <c r="D39" s="1">
+        <v>85</v>
+      </c>
+      <c r="E39" s="1">
+        <v>246268</v>
+      </c>
+      <c r="F39" s="1">
+        <v>37056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <v>284</v>
+      </c>
+      <c r="C40" s="1">
+        <v>58</v>
+      </c>
+      <c r="D40" s="1">
+        <v>85</v>
+      </c>
+      <c r="E40" s="1">
+        <v>246270</v>
+      </c>
+      <c r="F40" s="1">
+        <v>37063</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1">
+        <v>285</v>
+      </c>
+      <c r="C41" s="1">
+        <v>49</v>
+      </c>
+      <c r="D41" s="1">
+        <v>85</v>
+      </c>
+      <c r="E41" s="1">
+        <v>246273</v>
+      </c>
+      <c r="F41" s="1">
+        <v>37066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1">
+        <v>288</v>
+      </c>
+      <c r="C42" s="1">
+        <v>48</v>
+      </c>
+      <c r="D42" s="1">
+        <v>85</v>
+      </c>
+      <c r="E42" s="1">
+        <v>246273</v>
+      </c>
+      <c r="F42" s="1">
+        <v>37067</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1">
+        <v>287</v>
+      </c>
+      <c r="C43" s="1">
+        <v>57</v>
+      </c>
+      <c r="D43" s="1">
+        <v>85</v>
+      </c>
+      <c r="E43" s="1">
+        <v>246275</v>
+      </c>
+      <c r="F43" s="1">
+        <v>37072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>285</v>
+      </c>
+      <c r="C44" s="1">
+        <v>60</v>
+      </c>
+      <c r="D44" s="1">
+        <v>85</v>
+      </c>
+      <c r="E44" s="1">
+        <v>246276</v>
+      </c>
+      <c r="F44" s="1">
+        <v>37072</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>285</v>
+      </c>
+      <c r="C45" s="1">
+        <v>59</v>
+      </c>
+      <c r="D45" s="1">
+        <v>85</v>
+      </c>
+      <c r="E45" s="1">
+        <v>247301</v>
+      </c>
+      <c r="F45" s="1">
+        <v>37134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>285</v>
+      </c>
+      <c r="C46" s="1">
+        <v>60</v>
+      </c>
+      <c r="D46" s="1">
+        <v>85</v>
+      </c>
+      <c r="E46" s="1">
+        <v>248189</v>
+      </c>
+      <c r="F46" s="1">
+        <v>37184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>285</v>
+      </c>
+      <c r="C47" s="1">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1">
+        <v>85</v>
+      </c>
+      <c r="E47" s="1">
+        <v>248191</v>
+      </c>
+      <c r="F47" s="1">
+        <v>37189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>277</v>
+      </c>
+      <c r="C48" s="1">
+        <v>60</v>
+      </c>
+      <c r="D48" s="1">
+        <v>85</v>
+      </c>
+      <c r="E48" s="1">
+        <v>248192</v>
+      </c>
+      <c r="F48" s="1">
+        <v>37194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1">
+        <v>286</v>
+      </c>
+      <c r="C49" s="1">
+        <v>59</v>
+      </c>
+      <c r="D49" s="1">
+        <v>85</v>
+      </c>
+      <c r="E49" s="1">
+        <v>248192</v>
+      </c>
+      <c r="F49" s="1">
+        <v>37195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>322</v>
+      </c>
+      <c r="C50" s="1">
+        <v>29</v>
+      </c>
+      <c r="D50" s="1">
+        <v>85</v>
+      </c>
+      <c r="E50" s="1">
+        <v>248217</v>
+      </c>
+      <c r="F50" s="1">
+        <v>37204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1">
+        <v>299</v>
+      </c>
+      <c r="C51" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1">
-      <c r="A2" s="2">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2">
-        <v>262</v>
-      </c>
-      <c r="C2" s="2">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2">
-        <v>149006</v>
-      </c>
-      <c r="F2" s="2">
-        <v>17937</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1">
-      <c r="A3" s="2">
+      <c r="D51" s="1">
+        <v>85</v>
+      </c>
+      <c r="E51" s="1">
+        <v>248229</v>
+      </c>
+      <c r="F51" s="1">
+        <v>37210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>296</v>
+      </c>
+      <c r="C52" s="1">
+        <v>60</v>
+      </c>
+      <c r="D52" s="1">
+        <v>85</v>
+      </c>
+      <c r="E52" s="1">
+        <v>248231</v>
+      </c>
+      <c r="F52" s="1">
+        <v>37214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>296</v>
+      </c>
+      <c r="C53" s="1">
+        <v>60</v>
+      </c>
+      <c r="D53" s="1">
+        <v>85</v>
+      </c>
+      <c r="E53" s="1">
+        <v>248239</v>
+      </c>
+      <c r="F53" s="1">
+        <v>37221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>9</v>
+      </c>
+      <c r="B54" s="1">
+        <v>287</v>
+      </c>
+      <c r="C54" s="1">
+        <v>47</v>
+      </c>
+      <c r="D54" s="1">
+        <v>85</v>
+      </c>
+      <c r="E54" s="1">
+        <v>248241</v>
+      </c>
+      <c r="F54" s="1">
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <v>288</v>
+      </c>
+      <c r="C55" s="1">
+        <v>49</v>
+      </c>
+      <c r="D55" s="1">
+        <v>85</v>
+      </c>
+      <c r="E55" s="1">
+        <v>248244</v>
+      </c>
+      <c r="F55" s="1">
+        <v>37234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1">
+        <v>275</v>
+      </c>
+      <c r="C56" s="1">
+        <v>48</v>
+      </c>
+      <c r="D56" s="1">
+        <v>85</v>
+      </c>
+      <c r="E56" s="1">
+        <v>248456</v>
+      </c>
+      <c r="F56" s="1">
+        <v>37259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>290</v>
-      </c>
-      <c r="C3" s="2">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2">
-        <v>92</v>
-      </c>
-      <c r="E3" s="2">
-        <v>149053</v>
-      </c>
-      <c r="F3" s="2">
-        <v>17941</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>266</v>
-      </c>
-      <c r="C4" s="2">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2">
-        <v>92</v>
-      </c>
-      <c r="E4" s="2">
-        <v>149090</v>
-      </c>
-      <c r="F4" s="2">
-        <v>17942</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="2">
+      <c r="B57" s="1">
+        <v>267</v>
+      </c>
+      <c r="C57" s="1">
+        <v>57</v>
+      </c>
+      <c r="D57" s="1">
+        <v>85</v>
+      </c>
+      <c r="E57" s="1">
+        <v>248457</v>
+      </c>
+      <c r="F57" s="1">
+        <v>37263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>279</v>
+      </c>
+      <c r="C58" s="1">
+        <v>57</v>
+      </c>
+      <c r="D58" s="1">
+        <v>85</v>
+      </c>
+      <c r="E58" s="1">
+        <v>248458</v>
+      </c>
+      <c r="F58" s="1">
+        <v>37267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1">
+        <v>282</v>
+      </c>
+      <c r="C59" s="1">
+        <v>48</v>
+      </c>
+      <c r="D59" s="1">
+        <v>85</v>
+      </c>
+      <c r="E59" s="1">
+        <v>248524</v>
+      </c>
+      <c r="F59" s="1">
+        <v>37279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1">
+        <v>287</v>
+      </c>
+      <c r="C60" s="1">
+        <v>57</v>
+      </c>
+      <c r="D60" s="1">
+        <v>85</v>
+      </c>
+      <c r="E60" s="1">
+        <v>248578</v>
+      </c>
+      <c r="F60" s="1">
+        <v>37285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>5</v>
+      </c>
+      <c r="B61" s="1">
+        <v>284</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43</v>
+      </c>
+      <c r="D61" s="1">
+        <v>85</v>
+      </c>
+      <c r="E61" s="1">
+        <v>248579</v>
+      </c>
+      <c r="F61" s="1">
+        <v>37288</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
-        <v>267</v>
-      </c>
-      <c r="C5" s="2">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2">
-        <v>92</v>
-      </c>
-      <c r="E5" s="2">
-        <v>149093</v>
-      </c>
-      <c r="F5" s="2">
-        <v>17946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>268</v>
-      </c>
-      <c r="C6" s="2">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2">
-        <v>92</v>
-      </c>
-      <c r="E6" s="2">
-        <v>149093</v>
-      </c>
-      <c r="F6" s="2">
-        <v>17946</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>271</v>
-      </c>
-      <c r="C7" s="2">
-        <v>60</v>
-      </c>
-      <c r="D7" s="2">
-        <v>92</v>
-      </c>
-      <c r="E7" s="2">
-        <v>149095</v>
-      </c>
-      <c r="F7" s="2">
-        <v>17946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>266</v>
-      </c>
-      <c r="C8" s="2">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2">
-        <v>92</v>
-      </c>
-      <c r="E8" s="2">
-        <v>149101</v>
-      </c>
-      <c r="F8" s="2">
-        <v>17947</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>271</v>
-      </c>
-      <c r="C9" s="2">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2">
-        <v>92</v>
-      </c>
-      <c r="E9" s="2">
-        <v>149102</v>
-      </c>
-      <c r="F9" s="2">
-        <v>17947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
-        <v>271</v>
-      </c>
-      <c r="C10" s="2">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2">
-        <v>92</v>
-      </c>
-      <c r="E10" s="2">
-        <v>149102</v>
-      </c>
-      <c r="F10" s="2">
-        <v>17947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2">
-        <v>252</v>
-      </c>
-      <c r="C11" s="2">
-        <v>60</v>
-      </c>
-      <c r="D11" s="2">
-        <v>92</v>
-      </c>
-      <c r="E11" s="2">
-        <v>149103</v>
-      </c>
-      <c r="F11" s="2">
-        <v>17948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>0</v>
-      </c>
-      <c r="B12" s="2">
-        <v>248</v>
-      </c>
-      <c r="C12" s="2">
-        <v>60</v>
-      </c>
-      <c r="D12" s="2">
-        <v>92</v>
-      </c>
-      <c r="E12" s="2">
-        <v>149104</v>
-      </c>
-      <c r="F12" s="2">
-        <v>17948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2">
-        <v>265</v>
-      </c>
-      <c r="C13" s="2">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2">
-        <v>92</v>
-      </c>
-      <c r="E13" s="2">
-        <v>149104</v>
-      </c>
-      <c r="F13" s="2">
-        <v>17948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>262</v>
-      </c>
-      <c r="C14" s="2">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2">
-        <v>92</v>
-      </c>
-      <c r="E14" s="2">
-        <v>149104</v>
-      </c>
-      <c r="F14" s="2">
-        <v>17950</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2">
-        <v>260</v>
-      </c>
-      <c r="C15" s="2">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2">
-        <v>92</v>
-      </c>
-      <c r="E15" s="2">
-        <v>149105</v>
-      </c>
-      <c r="F15" s="2">
-        <v>17950</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2">
-        <v>264</v>
-      </c>
-      <c r="C16" s="2">
-        <v>60</v>
-      </c>
-      <c r="D16" s="2">
-        <v>92</v>
-      </c>
-      <c r="E16" s="2">
-        <v>149105</v>
-      </c>
-      <c r="F16" s="2">
-        <v>17951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <v>259</v>
-      </c>
-      <c r="C17" s="2">
-        <v>60</v>
-      </c>
-      <c r="D17" s="2">
-        <v>92</v>
-      </c>
-      <c r="E17" s="2">
-        <v>149105</v>
-      </c>
-      <c r="F17" s="2">
-        <v>17951</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>252</v>
-      </c>
-      <c r="C18" s="2">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2">
-        <v>93</v>
-      </c>
-      <c r="E18" s="2">
-        <v>149105</v>
-      </c>
-      <c r="F18" s="2">
-        <v>17951</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
-        <v>251</v>
-      </c>
-      <c r="C19" s="2">
-        <v>60</v>
-      </c>
-      <c r="D19" s="2">
-        <v>93</v>
-      </c>
-      <c r="E19" s="2">
-        <v>149133</v>
-      </c>
-      <c r="F19" s="2">
-        <v>17959</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2">
-        <v>268</v>
-      </c>
-      <c r="C20" s="2">
-        <v>60</v>
-      </c>
-      <c r="D20" s="2">
-        <v>93</v>
-      </c>
-      <c r="E20" s="2">
-        <v>149133</v>
-      </c>
-      <c r="F20" s="2">
-        <v>17961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2">
-        <v>282</v>
-      </c>
-      <c r="C21" s="2">
-        <v>60</v>
-      </c>
-      <c r="D21" s="2">
-        <v>93</v>
-      </c>
-      <c r="E21" s="2">
-        <v>149145</v>
-      </c>
-      <c r="F21" s="2">
-        <v>17967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2">
-        <v>279</v>
-      </c>
-      <c r="C22" s="2">
-        <v>60</v>
-      </c>
-      <c r="D22" s="2">
-        <v>93</v>
-      </c>
-      <c r="E22" s="2">
-        <v>149145</v>
-      </c>
-      <c r="F22" s="2">
-        <v>17967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2">
-        <v>280</v>
-      </c>
-      <c r="C23" s="2">
-        <v>60</v>
-      </c>
-      <c r="D23" s="2">
-        <v>93</v>
-      </c>
-      <c r="E23" s="2">
-        <v>149145</v>
-      </c>
-      <c r="F23" s="2">
-        <v>17967</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2">
-        <v>280</v>
-      </c>
-      <c r="C24" s="2">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2">
-        <v>93</v>
-      </c>
-      <c r="E24" s="2">
-        <v>149145</v>
-      </c>
-      <c r="F24" s="2">
-        <v>17967</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2">
-        <v>281</v>
-      </c>
-      <c r="C25" s="2">
-        <v>60</v>
-      </c>
-      <c r="D25" s="2">
-        <v>93</v>
-      </c>
-      <c r="E25" s="2">
-        <v>149150</v>
-      </c>
-      <c r="F25" s="2">
-        <v>17969</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2">
-        <v>8</v>
-      </c>
-      <c r="B26" s="2">
-        <v>281</v>
-      </c>
-      <c r="C26" s="2">
-        <v>60</v>
-      </c>
-      <c r="D26" s="2">
-        <v>93</v>
-      </c>
-      <c r="E26" s="2">
-        <v>149150</v>
-      </c>
-      <c r="F26" s="2">
-        <v>17969</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="D27" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="D28" s="2">
-        <v>93</v>
+      <c r="B62" s="1">
+        <v>285</v>
+      </c>
+      <c r="C62" s="1">
+        <v>59</v>
+      </c>
+      <c r="D62" s="1">
+        <v>85</v>
+      </c>
+      <c r="E62" s="1">
+        <v>248580</v>
+      </c>
+      <c r="F62" s="1">
+        <v>37289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="D63" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="D64" s="1">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/report.xlsx
+++ b/report.xlsx
@@ -86,37 +86,37 @@
     <t>1080x1920</t>
   </si>
   <si>
-    <t>wifi</t>
-  </si>
-  <si>
-    <t>20秒</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
-    <t>11%</t>
-  </si>
-  <si>
-    <t>221M</t>
-  </si>
-  <si>
-    <t>71M</t>
+    <t>gprs</t>
+  </si>
+  <si>
+    <t>75秒</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>335M</t>
+  </si>
+  <si>
+    <t>102M</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>110KB</t>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>10624KB</t>
+  </si>
+  <si>
+    <t>232KB</t>
   </si>
   <si>
     <t>17KB</t>
-  </si>
-  <si>
-    <t>8KB</t>
   </si>
   <si>
     <t>cpu(%)</t>
@@ -244,27 +244,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$A$1:$A$6</c:f>
+              <c:f>DU2TAN15AJ049163detail!$A$1:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,27 +391,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$B$1:$B$6</c:f>
+              <c:f>DU2TAN15AJ049163detail!$B$1:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>176</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>221</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>217</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>207</c:v>
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,33 +538,75 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$D$1:$D$8</c:f>
+              <c:f>DU2TAN15AJ049163detail!$D$1:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,27 +691,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$C$1:$C$6</c:f>
+              <c:f>DU2TAN15AJ049163detail!$C$1:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="13">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
+                <c:pt idx="15">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,27 +838,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$E$1:$E$6</c:f>
+              <c:f>DU2TAN15AJ049163detail!$E$1:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>897747</c:v>
+                  <c:v>335324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>897856</c:v>
+                  <c:v>335335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>897857</c:v>
+                  <c:v>336843</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>897865</c:v>
+                  <c:v>347466</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>897865</c:v>
+                  <c:v>347467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>347467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>347467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>347469</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>347469</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>347470</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>347470</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>347471</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>347471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>347472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>347473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>347473</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>347473</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>347474</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>347474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -775,27 +985,69 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>DU2TAN15AJ049163detail!$F$1:$F$6</c:f>
+              <c:f>DU2TAN15AJ049163detail!$F$1:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>143530</c:v>
+                  <c:v>60666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143546</c:v>
+                  <c:v>60668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>143548</c:v>
+                  <c:v>60718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143558</c:v>
+                  <c:v>60950</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143559</c:v>
+                  <c:v>60950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60952</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60953</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60953</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>60953</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60956</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60956</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60956</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60956</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>60957</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -852,13 +1104,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -882,13 +1134,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -912,13 +1164,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -942,13 +1194,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -972,13 +1224,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1002,13 +1254,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1452,10 +1704,10 @@
         <v>30</v>
       </c>
       <c r="M3" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="N3" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>31</v>
@@ -1490,7 +1742,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1526,112 +1778,392 @@
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2">
-        <v>897747</v>
+        <v>335324</v>
       </c>
       <c r="F2" s="2">
-        <v>143530</v>
+        <v>60666</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2">
-        <v>897856</v>
+        <v>335335</v>
       </c>
       <c r="F3" s="2">
-        <v>143546</v>
+        <v>60668</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C4" s="2">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2">
-        <v>897857</v>
+        <v>336843</v>
       </c>
       <c r="F4" s="2">
-        <v>143548</v>
+        <v>60718</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C5" s="2">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2">
-        <v>897865</v>
+        <v>347466</v>
       </c>
       <c r="F5" s="2">
-        <v>143558</v>
+        <v>60950</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="2">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="C6" s="2">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2">
+        <v>347467</v>
+      </c>
+      <c r="F6" s="2">
+        <v>60950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1">
+      <c r="A7" s="2">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>298</v>
+      </c>
+      <c r="C7" s="2">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2">
+        <v>347467</v>
+      </c>
+      <c r="F7" s="2">
+        <v>60950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2">
+        <v>325</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2">
+        <v>41</v>
+      </c>
+      <c r="E8" s="2">
+        <v>347467</v>
+      </c>
+      <c r="F8" s="2">
+        <v>60950</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>333</v>
+      </c>
+      <c r="C9" s="2">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2">
+        <v>347469</v>
+      </c>
+      <c r="F9" s="2">
+        <v>60952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>332</v>
+      </c>
+      <c r="C10" s="2">
+        <v>59</v>
+      </c>
+      <c r="D10" s="2">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2">
+        <v>347469</v>
+      </c>
+      <c r="F10" s="2">
+        <v>60952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2">
+        <v>334</v>
+      </c>
+      <c r="C11" s="2">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2">
+        <v>347470</v>
+      </c>
+      <c r="F11" s="2">
+        <v>60952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <v>335</v>
+      </c>
+      <c r="C12" s="2">
+        <v>59</v>
+      </c>
+      <c r="D12" s="2">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2">
+        <v>347470</v>
+      </c>
+      <c r="F12" s="2">
+        <v>60953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2">
+        <v>326</v>
+      </c>
+      <c r="C13" s="2">
         <v>60</v>
       </c>
-      <c r="D6" s="2">
-        <v>84</v>
-      </c>
-      <c r="E6" s="2">
-        <v>897865</v>
-      </c>
-      <c r="F6" s="2">
-        <v>143559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="D7" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" s="2">
-        <v>84</v>
+      <c r="D13" s="2">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2">
+        <v>347471</v>
+      </c>
+      <c r="F13" s="2">
+        <v>60953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>324</v>
+      </c>
+      <c r="C14" s="2">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2">
+        <v>347471</v>
+      </c>
+      <c r="F14" s="2">
+        <v>60953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>329</v>
+      </c>
+      <c r="C15" s="2">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2">
+        <v>347472</v>
+      </c>
+      <c r="F15" s="2">
+        <v>60956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>335</v>
+      </c>
+      <c r="C16" s="2">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2">
+        <v>347473</v>
+      </c>
+      <c r="F16" s="2">
+        <v>60956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2">
+        <v>334</v>
+      </c>
+      <c r="C17" s="2">
+        <v>59</v>
+      </c>
+      <c r="D17" s="2">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2">
+        <v>347473</v>
+      </c>
+      <c r="F17" s="2">
+        <v>60956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
+        <v>330</v>
+      </c>
+      <c r="C18" s="2">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2">
+        <v>347473</v>
+      </c>
+      <c r="F18" s="2">
+        <v>60956</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
+        <v>329</v>
+      </c>
+      <c r="C19" s="2">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2">
+        <v>347474</v>
+      </c>
+      <c r="F19" s="2">
+        <v>60957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2">
+        <v>331</v>
+      </c>
+      <c r="C20" s="2">
+        <v>58</v>
+      </c>
+      <c r="D20" s="2">
+        <v>41</v>
+      </c>
+      <c r="E20" s="2">
+        <v>347474</v>
+      </c>
+      <c r="F20" s="2">
+        <v>60957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="D21" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="D22" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
